--- a/TEST/2F_48_WELL_2_FACTORS_COOPER/tube_stock/0_tube_stock.xlsx
+++ b/TEST/2F_48_WELL_2_FACTORS_COOPER/tube_stock/0_tube_stock.xlsx
@@ -471,62 +471,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Vol_FeSO4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Water_FeSO4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vol_CaCl2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Water_CaCl2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Vol_MgSO4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Water_MgSO4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Vol_Na2HPO4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Water_Na2HPO4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_FeSO4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Water_FeSO4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Vol_Na2EDTA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Water_Na2EDTA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Vol_MnSO4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Water_MnSO4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_Na2EDTA</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Water_Na2EDTA</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_MgSO4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Water_MgSO4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_CaCl2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Water_CaCl2</t>
         </is>
       </c>
     </row>
@@ -549,46 +549,46 @@
         <v>4322.6</v>
       </c>
       <c r="F2" t="n">
-        <v>707.2</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="n">
-        <v>4292.8</v>
+        <v>2000</v>
       </c>
       <c r="H2" t="n">
-        <v>802.2</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>4197.8</v>
+        <v>4900</v>
       </c>
       <c r="J2" t="n">
-        <v>4828.8</v>
+        <v>175</v>
       </c>
       <c r="K2" t="n">
-        <v>171.2</v>
+        <v>4825</v>
       </c>
       <c r="L2" t="n">
-        <v>4296.9</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>703.1</v>
+        <v>3000</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P2" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R2" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="3">
@@ -598,58 +598,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2847.3</v>
+        <v>2868.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2152.7</v>
+        <v>2131.3</v>
       </c>
       <c r="D3" t="n">
-        <v>309.5</v>
+        <v>2635.1</v>
       </c>
       <c r="E3" t="n">
-        <v>4690.5</v>
+        <v>2364.9</v>
       </c>
       <c r="F3" t="n">
-        <v>2569.3</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="n">
-        <v>2430.7</v>
+        <v>2000</v>
       </c>
       <c r="H3" t="n">
-        <v>4146.4</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>853.6</v>
+        <v>4900</v>
       </c>
       <c r="J3" t="n">
-        <v>813.6</v>
+        <v>175</v>
       </c>
       <c r="K3" t="n">
-        <v>4186.4</v>
+        <v>4825</v>
       </c>
       <c r="L3" t="n">
-        <v>511.6</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>4488.4</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P3" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R3" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S3" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="4">
@@ -659,58 +659,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2051.8</v>
+        <v>3789.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2948.2</v>
+        <v>1210.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3976.6</v>
+        <v>1504.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1023.4</v>
+        <v>3495.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2004.3</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>2995.7</v>
+        <v>2000</v>
       </c>
       <c r="H4" t="n">
-        <v>233.8</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>4766.2</v>
+        <v>4900</v>
       </c>
       <c r="J4" t="n">
-        <v>4027.8</v>
+        <v>175</v>
       </c>
       <c r="K4" t="n">
-        <v>972.2</v>
+        <v>4825</v>
       </c>
       <c r="L4" t="n">
-        <v>3251.6</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1748.4</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R4" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S4" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="5">
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3621.9</v>
+        <v>107.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.1</v>
+        <v>4892.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1946.7</v>
+        <v>4556.2</v>
       </c>
       <c r="E5" t="n">
-        <v>3053.3</v>
+        <v>443.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1141.4</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>3858.6</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="n">
-        <v>3377.7</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>1622.3</v>
+        <v>4900</v>
       </c>
       <c r="J5" t="n">
-        <v>4158.4</v>
+        <v>175</v>
       </c>
       <c r="K5" t="n">
-        <v>841.6</v>
+        <v>4825</v>
       </c>
       <c r="L5" t="n">
-        <v>1679</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>3321</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R5" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="6">
@@ -781,58 +781,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732.5</v>
+        <v>669</v>
       </c>
       <c r="C6" t="n">
-        <v>2267.5</v>
+        <v>4331</v>
       </c>
       <c r="D6" t="n">
-        <v>1252</v>
+        <v>1949.8</v>
       </c>
       <c r="E6" t="n">
-        <v>3748</v>
+        <v>3050.2</v>
       </c>
       <c r="F6" t="n">
-        <v>4108.1</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="n">
-        <v>891.9</v>
+        <v>2000</v>
       </c>
       <c r="H6" t="n">
-        <v>641</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>4359</v>
+        <v>4900</v>
       </c>
       <c r="J6" t="n">
-        <v>1593.7</v>
+        <v>175</v>
       </c>
       <c r="K6" t="n">
-        <v>3406.3</v>
+        <v>4825</v>
       </c>
       <c r="L6" t="n">
-        <v>4038.1</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>961.9</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R6" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S6" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="7">
@@ -842,58 +842,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2030.8</v>
+        <v>4488.2</v>
       </c>
       <c r="C7" t="n">
-        <v>2969.2</v>
+        <v>511.8</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5</v>
+        <v>3897.8</v>
       </c>
       <c r="E7" t="n">
-        <v>4978.5</v>
+        <v>1102.2</v>
       </c>
       <c r="F7" t="n">
-        <v>3985.7</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="n">
-        <v>1014.3</v>
+        <v>2000</v>
       </c>
       <c r="H7" t="n">
-        <v>3226.3</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>1773.7</v>
+        <v>4900</v>
       </c>
       <c r="J7" t="n">
-        <v>2232.5</v>
+        <v>175</v>
       </c>
       <c r="K7" t="n">
-        <v>2767.5</v>
+        <v>4825</v>
       </c>
       <c r="L7" t="n">
-        <v>1392.2</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>3607.8</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R7" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S7" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="8">
@@ -903,58 +903,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1827.3</v>
+        <v>3538.1</v>
       </c>
       <c r="C8" t="n">
-        <v>3172.7</v>
+        <v>1461.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1856</v>
+        <v>243.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3144</v>
+        <v>4756.5</v>
       </c>
       <c r="F8" t="n">
-        <v>4684.8</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="n">
-        <v>315.2</v>
+        <v>2000</v>
       </c>
       <c r="H8" t="n">
-        <v>4893.1</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>106.9</v>
+        <v>4900</v>
       </c>
       <c r="J8" t="n">
-        <v>3936.6</v>
+        <v>175</v>
       </c>
       <c r="K8" t="n">
-        <v>1063.4</v>
+        <v>4825</v>
       </c>
       <c r="L8" t="n">
-        <v>313.9</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>4686.1</v>
+        <v>3000</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>4900</v>
+        <v>1000</v>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="R8" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="S8" t="n">
-        <v>4825</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="9">
@@ -982,40 +982,40 @@
         <v>2000</v>
       </c>
       <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J9" t="n">
+        <v>175</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4825</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N9" t="n">
         <v>4000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="O9" t="n">
         <v>1000</v>
       </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4900</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R9" t="n">
         <v>25</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>4975</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R9" t="n">
-        <v>175</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4825</v>
       </c>
     </row>
     <row r="10">
@@ -1043,40 +1043,40 @@
         <v>2000</v>
       </c>
       <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J10" t="n">
+        <v>175</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4825</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N10" t="n">
         <v>4000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="O10" t="n">
         <v>1000</v>
       </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4900</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R10" t="n">
         <v>25</v>
       </c>
-      <c r="M10" t="n">
+      <c r="S10" t="n">
         <v>4975</v>
-      </c>
-      <c r="N10" t="n">
-        <v>100</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>175</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4825</v>
       </c>
     </row>
   </sheetData>
